--- a/ITMO/YAG Nd.xlsx
+++ b/ITMO/YAG Nd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysikova.dv\Documents\GitHub\Python_tasks_algorithm\ITMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121084C1-AF0D-42EB-9643-BA0C0A742A9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E3EED7-7188-4951-AF3E-0B5F40F4D29A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="B1:S1379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
